--- a/results/uzgent_result_dataframe.xlsx
+++ b/results/uzgent_result_dataframe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Heroic\ESICM\AF_model\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Heroic\ESICM\atrial_fibrillation_prediction\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1018FF30-CC1E-4C2D-BB6F-B73AEA150DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BA7D52A3-FEB5-4584-AF15-608319224939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>model</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>auc</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>ESCE</t>
   </si>
   <si>
     <t>transfer</t>
@@ -927,15 +933,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11:Q12"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,16 +981,22 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.5</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>183</v>
@@ -1016,16 +1028,22 @@
       <c r="M2" s="1">
         <v>0.85970539320503603</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1">
+        <v>8.9452641672045904E-2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3.98404799492552E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>18934</v>
@@ -1057,16 +1075,22 @@
       <c r="M3" s="1">
         <v>0.85415241043257795</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1">
+        <v>6.5770875942821994E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-6.1127425106939401E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>18934</v>
@@ -1098,16 +1122,22 @@
       <c r="M4" s="1">
         <v>0.85130958340413598</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <v>5.8825524778673699E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-5.1587021661517102E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>183</v>
@@ -1139,16 +1169,22 @@
       <c r="M5" s="1">
         <v>0.85346875742456596</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="1">
+        <v>9.2907078790440203E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5.2085319068885E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>13191</v>
@@ -1180,16 +1216,22 @@
       <c r="M6" s="1">
         <v>0.79468669617938903</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="1">
+        <v>2.06647065559083E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-9.6120041063634393E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>378</v>
@@ -1221,16 +1263,22 @@
       <c r="M7" s="1">
         <v>0.80903931339977797</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="1">
+        <v>7.0584058846880293E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3.1264199702681801E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>18970</v>
@@ -1262,16 +1310,22 @@
       <c r="M8" s="1">
         <v>0.81624458586264803</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="1">
+        <v>0.17754403466909999</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-0.17743951935567601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.5</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>183</v>
@@ -1303,16 +1357,22 @@
       <c r="M9" s="1">
         <v>0.82749559556869401</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="1">
+        <v>9.5190624706751298E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3.3891567022067297E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>165</v>
@@ -1344,16 +1404,22 @@
       <c r="M10" s="1">
         <v>0.84727272727272696</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="1">
+        <v>8.7534314600456506E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4.0794353464039201E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>9675</v>
@@ -1385,16 +1451,22 @@
       <c r="M11" s="1">
         <v>0.85059982773471099</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="1">
+        <v>6.51229302885038E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-5.8105108127624899E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>9675</v>
@@ -1426,16 +1498,22 @@
       <c r="M12" s="1">
         <v>0.83610542635658902</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="1">
+        <v>6.4523581530835206E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-4.9041856543565097E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>165</v>
@@ -1467,16 +1545,22 @@
       <c r="M13" s="1">
         <v>0.84581818181818103</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="1">
+        <v>9.6401628484008406E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>6.5823752390383405E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>7733</v>
@@ -1508,16 +1592,22 @@
       <c r="M14" s="1">
         <v>0.72449785934420297</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="1">
+        <v>0.12025201122852799</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-0.109339409074466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>298</v>
@@ -1549,16 +1639,22 @@
       <c r="M15" s="1">
         <v>0.748603666501508</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="1">
+        <v>8.7036558205978401E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>8.5278327892385399E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>9653</v>
@@ -1590,16 +1686,22 @@
       <c r="M16" s="1">
         <v>0.77512690355329905</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="1">
+        <v>0.175341752186709</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-0.174428096767027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>158</v>
@@ -1631,16 +1733,22 @@
       <c r="M17" s="1">
         <v>0.79983175773113202</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="1">
+        <v>0.11022665631926901</v>
+      </c>
+      <c r="O17" s="1">
+        <v>8.9626202161400506E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>165</v>
@@ -1649,39 +1757,45 @@
         <v>151</v>
       </c>
       <c r="F18" s="1">
-        <v>0.72121212121212097</v>
+        <v>0.70303030303030301</v>
       </c>
       <c r="G18" s="1">
-        <v>0.814569536423841</v>
+        <v>0.80132450331125804</v>
       </c>
       <c r="H18" s="1">
-        <v>0.80952380952380898</v>
+        <v>0.79452054794520499</v>
       </c>
       <c r="I18" s="1">
-        <v>0.72781065088757402</v>
+        <v>0.71176470588235297</v>
       </c>
       <c r="J18" s="1">
-        <v>0.762820512820512</v>
+        <v>0.74598070739549804</v>
       </c>
       <c r="K18" s="1">
-        <v>0.76874999999999905</v>
+        <v>0.75389408099688404</v>
       </c>
       <c r="L18" s="1">
-        <v>0.53655749729561697</v>
+        <v>0.50531910823536597</v>
       </c>
       <c r="M18" s="1">
-        <v>0.83379490266907397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.82809552478426596</v>
+      </c>
+      <c r="N18" s="1">
+        <v>7.8834767664282698E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.38605512628639E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>12070</v>
@@ -1690,39 +1804,45 @@
         <v>151</v>
       </c>
       <c r="F19" s="1">
-        <v>0.73678541839270895</v>
+        <v>0.73802816901408397</v>
       </c>
       <c r="G19" s="1">
-        <v>0.814569536423841</v>
+        <v>0.80132450331125804</v>
       </c>
       <c r="H19" s="1">
-        <v>0.99686133841497504</v>
+        <v>0.99664354441709502</v>
       </c>
       <c r="I19" s="1">
-        <v>3.72727272727272E-2</v>
+        <v>3.6856533658239397E-2</v>
       </c>
       <c r="J19" s="1">
-        <v>0.84731551617359802</v>
+        <v>0.84805788271134797</v>
       </c>
       <c r="K19" s="1">
-        <v>7.1283685888148304E-2</v>
+        <v>7.0471753057658695E-2</v>
       </c>
       <c r="L19" s="1">
-        <v>0.13718595498427899</v>
+        <v>0.13441858737927401</v>
       </c>
       <c r="M19" s="1">
-        <v>0.84384084013233995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.841736119874682</v>
+      </c>
+      <c r="N19" s="1">
+        <v>8.1556741926789494E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-7.9145672854288099E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>12070</v>
@@ -1731,39 +1851,45 @@
         <v>151</v>
       </c>
       <c r="F20" s="1">
-        <v>0.72651201325600601</v>
+        <v>0.72949461474730704</v>
       </c>
       <c r="G20" s="1">
-        <v>0.83443708609271505</v>
+        <v>0.814569536423841</v>
       </c>
       <c r="H20" s="1">
-        <v>0.99715715260404802</v>
+        <v>0.99683006905920901</v>
       </c>
       <c r="I20" s="1">
-        <v>3.6766851473592002E-2</v>
+        <v>3.6304604486422601E-2</v>
       </c>
       <c r="J20" s="1">
-        <v>0.84058665644171704</v>
+        <v>0.84246280438214605</v>
       </c>
       <c r="K20" s="1">
-        <v>7.04304080491895E-2</v>
+        <v>6.9511161345012701E-2</v>
       </c>
       <c r="L20" s="1">
-        <v>0.13794795951247199</v>
+        <v>0.134266109040731</v>
       </c>
       <c r="M20" s="1">
-        <v>0.84879647969625305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.84682179559632798</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5.7625516714220802E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>-4.5699257614397797E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>165</v>
@@ -1775,36 +1901,42 @@
         <v>0.67272727272727195</v>
       </c>
       <c r="G21" s="1">
-        <v>0.83443708609271505</v>
+        <v>0.814569536423841</v>
       </c>
       <c r="H21" s="1">
-        <v>0.81617647058823495</v>
+        <v>0.79856115107913594</v>
       </c>
       <c r="I21" s="1">
-        <v>0.7</v>
+        <v>0.69491525423728795</v>
       </c>
       <c r="J21" s="1">
-        <v>0.73754152823920205</v>
+        <v>0.73026315789473595</v>
       </c>
       <c r="K21" s="1">
-        <v>0.76132930513595098</v>
+        <v>0.75</v>
       </c>
       <c r="L21" s="1">
-        <v>0.51165057289506299</v>
+        <v>0.490376873131324</v>
       </c>
       <c r="M21" s="1">
-        <v>0.83146698775837802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.82994180212723201</v>
+      </c>
+      <c r="N21" s="1">
+        <v>9.2357005380010099E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>4.7774278601153998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>13320</v>
@@ -1813,39 +1945,45 @@
         <v>311</v>
       </c>
       <c r="F22" s="1">
-        <v>0.626351351351351</v>
+        <v>0.64902402402402404</v>
       </c>
       <c r="G22" s="1">
-        <v>0.70096463022508004</v>
+        <v>0.68488745980707399</v>
       </c>
       <c r="H22" s="1">
-        <v>0.98897581792318601</v>
+        <v>0.98879103282626102</v>
       </c>
       <c r="I22" s="1">
-        <v>4.1963426371511001E-2</v>
+        <v>4.3576104746317498E-2</v>
       </c>
       <c r="J22" s="1">
-        <v>0.76696083838940898</v>
+        <v>0.783664959434347</v>
       </c>
       <c r="K22" s="1">
-        <v>7.9186342172175794E-2</v>
+        <v>8.1938834391228996E-2</v>
       </c>
       <c r="L22" s="1">
-        <v>0.100632545011799</v>
+        <v>0.103960371941547</v>
       </c>
       <c r="M22" s="1">
-        <v>0.73043473537846504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.73947343645896702</v>
+      </c>
+      <c r="N22" s="1">
+        <v>5.5873979869380197E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>-4.1011216685744999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>350</v>
@@ -1854,39 +1992,45 @@
         <v>311</v>
       </c>
       <c r="F23" s="1">
-        <v>0.74285714285714199</v>
+        <v>0.72285714285714198</v>
       </c>
       <c r="G23" s="1">
-        <v>0.70096463022508004</v>
+        <v>0.68488745980707399</v>
       </c>
       <c r="H23" s="1">
-        <v>0.73654390934844105</v>
+        <v>0.72079772079771998</v>
       </c>
       <c r="I23" s="1">
-        <v>0.70779220779220697</v>
+        <v>0.68709677419354798</v>
       </c>
       <c r="J23" s="1">
-        <v>0.73968705547652902</v>
+        <v>0.72182596291012802</v>
       </c>
       <c r="K23" s="1">
-        <v>0.70436187399030603</v>
+        <v>0.68599033816425103</v>
       </c>
       <c r="L23" s="1">
-        <v>0.44407887064555701</v>
+        <v>0.40781954194120701</v>
       </c>
       <c r="M23" s="1">
-        <v>0.78234267340376595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.77891593936610004</v>
+      </c>
+      <c r="N23" s="1">
+        <v>7.1805872169517795E-2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2.6687742560161501E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>12053</v>
@@ -1895,39 +2039,45 @@
         <v>161</v>
       </c>
       <c r="F24" s="1">
-        <v>0.67999668132415103</v>
+        <v>0.64058740562515504</v>
       </c>
       <c r="G24" s="1">
-        <v>0.75155279503105499</v>
+        <v>0.72670807453416097</v>
       </c>
       <c r="H24" s="1">
-        <v>0.99514327343370501</v>
+        <v>0.99433354797166695</v>
       </c>
       <c r="I24" s="1">
-        <v>3.0417295123177399E-2</v>
+        <v>2.6298044504383E-2</v>
       </c>
       <c r="J24" s="1">
-        <v>0.80792547685938199</v>
+        <v>0.779190634776465</v>
       </c>
       <c r="K24" s="1">
-        <v>5.8468229040831099E-2</v>
+        <v>5.0759219088936998E-2</v>
       </c>
       <c r="L24" s="1">
-        <v>0.105026901201855</v>
+        <v>8.7051080779863996E-2</v>
       </c>
       <c r="M24" s="1">
-        <v>0.76523048049169995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.76262913333604698</v>
+      </c>
+      <c r="N24" s="1">
+        <v>7.9376155506246299E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-6.7996940962624E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>158</v>
@@ -1936,28 +2086,34 @@
         <v>158</v>
       </c>
       <c r="F25" s="1">
-        <v>0.658227848101265</v>
+        <v>0.626582278481012</v>
       </c>
       <c r="G25" s="1">
-        <v>0.753164556962025</v>
+        <v>0.727848101265822</v>
       </c>
       <c r="H25" s="1">
-        <v>0.72727272727272696</v>
+        <v>0.69718309859154903</v>
       </c>
       <c r="I25" s="1">
-        <v>0.68786127167629996</v>
+        <v>0.66091954022988497</v>
       </c>
       <c r="J25" s="1">
-        <v>0.691029900332225</v>
+        <v>0.66</v>
       </c>
       <c r="K25" s="1">
-        <v>0.71903323262839802</v>
+        <v>0.69277108433734902</v>
       </c>
       <c r="L25" s="1">
-        <v>0.41325896753873598</v>
+        <v>0.35626177772225898</v>
       </c>
       <c r="M25" s="1">
-        <v>0.76205736260214696</v>
+        <v>0.75600865245954096</v>
+      </c>
+      <c r="N25" s="1">
+        <v>8.1273699971148694E-2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3.3343144047638898E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/uzgent_result_dataframe.xlsx
+++ b/results/uzgent_result_dataframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Heroic\ESICM\atrial_fibrillation_prediction\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BA7D52A3-FEB5-4584-AF15-608319224939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{031F3A10-E0E0-4E42-9625-ACEC3DD9160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="uzgent_result_dataframe" sheetId="1" r:id="rId1"/>
@@ -936,7 +936,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,34 +1099,34 @@
         <v>184</v>
       </c>
       <c r="F4" s="1">
-        <v>0.73312559416921896</v>
+        <v>0.71458751452413605</v>
       </c>
       <c r="G4" s="1">
-        <v>0.81521739130434701</v>
+        <v>0.84239130434782605</v>
       </c>
       <c r="H4" s="1">
-        <v>0.99755659360402404</v>
+        <v>0.99786119920348104</v>
       </c>
       <c r="I4" s="1">
-        <v>2.8829521429944199E-2</v>
+        <v>2.78827127181147E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>0.84513988249261696</v>
+        <v>0.832794755793555</v>
       </c>
       <c r="K4" s="1">
-        <v>5.5689623166883202E-2</v>
+        <v>5.3978756747344502E-2</v>
       </c>
       <c r="L4" s="1">
-        <v>0.12028566453561799</v>
+        <v>0.119744785503312</v>
       </c>
       <c r="M4" s="1">
-        <v>0.85130958340413598</v>
+        <v>0.85297469240978896</v>
       </c>
       <c r="N4" s="1">
-        <v>5.8825524778673699E-2</v>
+        <v>4.8703278815740103E-2</v>
       </c>
       <c r="O4" s="1">
-        <v>-5.1587021661517102E-2</v>
+        <v>-4.3519326794527101E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1146,34 +1146,34 @@
         <v>184</v>
       </c>
       <c r="F5" s="1">
-        <v>0.73224043715846998</v>
+        <v>0.70491803278688503</v>
       </c>
       <c r="G5" s="1">
-        <v>0.81521739130434701</v>
+        <v>0.84239130434782605</v>
       </c>
       <c r="H5" s="1">
-        <v>0.79761904761904701</v>
+        <v>0.816455696202531</v>
       </c>
       <c r="I5" s="1">
-        <v>0.75376884422110502</v>
+        <v>0.74162679425837297</v>
       </c>
       <c r="J5" s="1">
-        <v>0.763532763532763</v>
+        <v>0.75659824046920798</v>
       </c>
       <c r="K5" s="1">
-        <v>0.78328981723237601</v>
+        <v>0.78880407124681895</v>
       </c>
       <c r="L5" s="1">
-        <v>0.54941934613508203</v>
+        <v>0.55266966437524501</v>
       </c>
       <c r="M5" s="1">
-        <v>0.85346875742456596</v>
+        <v>0.85118199097172698</v>
       </c>
       <c r="N5" s="1">
-        <v>9.2907078790440203E-2</v>
+        <v>0.100723926131844</v>
       </c>
       <c r="O5" s="1">
-        <v>5.2085319068885E-2</v>
+        <v>6.87053321260747E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1193,34 +1193,34 @@
         <v>344</v>
       </c>
       <c r="F6" s="1">
-        <v>0.69979531498749104</v>
+        <v>0.71086346751573004</v>
       </c>
       <c r="G6" s="1">
-        <v>0.72383720930232498</v>
+        <v>0.72093023255813904</v>
       </c>
       <c r="H6" s="1">
-        <v>0.98981342483379797</v>
+        <v>0.98986593476195495</v>
       </c>
       <c r="I6" s="1">
-        <v>5.9158945117605097E-2</v>
+        <v>6.10536681437715E-2</v>
       </c>
       <c r="J6" s="1">
-        <v>0.81991384287427205</v>
+        <v>0.82747970349452804</v>
       </c>
       <c r="K6" s="1">
-        <v>0.109378431803206</v>
+        <v>0.112573763050385</v>
       </c>
       <c r="L6" s="1">
-        <v>0.14403572023275199</v>
+        <v>0.148279343621948</v>
       </c>
       <c r="M6" s="1">
-        <v>0.79468669617938903</v>
+        <v>0.79494607845729903</v>
       </c>
       <c r="N6" s="1">
-        <v>2.06647065559083E-2</v>
+        <v>1.9203242220225802E-2</v>
       </c>
       <c r="O6" s="1">
-        <v>-9.6120041063634393E-3</v>
+        <v>-3.6249316289482E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1240,34 +1240,34 @@
         <v>344</v>
       </c>
       <c r="F7" s="1">
-        <v>0.73544973544973502</v>
+        <v>0.75396825396825395</v>
       </c>
       <c r="G7" s="1">
-        <v>0.72383720930232498</v>
+        <v>0.72093023255813904</v>
       </c>
       <c r="H7" s="1">
-        <v>0.74530831099195705</v>
+        <v>0.74803149606299202</v>
       </c>
       <c r="I7" s="1">
-        <v>0.71346704871060096</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="J7" s="1">
-        <v>0.74034620505991999</v>
+        <v>0.75098814229249</v>
       </c>
       <c r="K7" s="1">
-        <v>0.71861471861471804</v>
+        <v>0.72408759124087496</v>
       </c>
       <c r="L7" s="1">
-        <v>0.45903108095783202</v>
+        <v>0.47510131161862301</v>
       </c>
       <c r="M7" s="1">
-        <v>0.80903931339977797</v>
+        <v>0.81000061523317302</v>
       </c>
       <c r="N7" s="1">
-        <v>7.0584058846880293E-2</v>
+        <v>6.5716985600733094E-2</v>
       </c>
       <c r="O7" s="1">
-        <v>3.1264199702681801E-2</v>
+        <v>3.8699290747079701E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1287,34 +1287,34 @@
         <v>194</v>
       </c>
       <c r="F8" s="1">
-        <v>0.51476014760147604</v>
+        <v>0.56457564575645702</v>
       </c>
       <c r="G8" s="1">
         <v>0.90721649484536004</v>
       </c>
       <c r="H8" s="1">
-        <v>0.99816007359705605</v>
+        <v>0.99832214765100602</v>
       </c>
       <c r="I8" s="1">
-        <v>1.87613260846391E-2</v>
+        <v>2.0862968231389199E-2</v>
       </c>
       <c r="J8" s="1">
-        <v>0.67923347128995204</v>
+        <v>0.72126069095561995</v>
       </c>
       <c r="K8" s="1">
-        <v>3.6762402088772801E-2</v>
+        <v>4.0787949015063697E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>8.4501097171473097E-2</v>
+        <v>9.5138777004171907E-2</v>
       </c>
       <c r="M8" s="1">
-        <v>0.81624458586264803</v>
+        <v>0.82251764859327503</v>
       </c>
       <c r="N8" s="1">
-        <v>0.17754403466909999</v>
+        <v>0.13746946451296499</v>
       </c>
       <c r="O8" s="1">
-        <v>-0.17743951935567601</v>
+        <v>-0.137221628117875</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1334,34 +1334,34 @@
         <v>183</v>
       </c>
       <c r="F9" s="1">
-        <v>0.51912568306010898</v>
+        <v>0.56284153005464399</v>
       </c>
       <c r="G9" s="1">
         <v>0.90163934426229497</v>
       </c>
       <c r="H9" s="1">
-        <v>0.840707964601769</v>
+        <v>0.85123966942148699</v>
       </c>
       <c r="I9" s="1">
-        <v>0.65217391304347805</v>
+        <v>0.67346938775510201</v>
       </c>
       <c r="J9" s="1">
-        <v>0.641891891891891</v>
+        <v>0.67763157894736803</v>
       </c>
       <c r="K9" s="1">
-        <v>0.75688073394495403</v>
+        <v>0.77102803738317705</v>
       </c>
       <c r="L9" s="1">
-        <v>0.45539812989747802</v>
+        <v>0.49367734568177102</v>
       </c>
       <c r="M9" s="1">
-        <v>0.82749559556869401</v>
+        <v>0.82943653139836904</v>
       </c>
       <c r="N9" s="1">
-        <v>9.5190624706751298E-2</v>
+        <v>9.4198922167384402E-2</v>
       </c>
       <c r="O9" s="1">
-        <v>3.3891567022067297E-2</v>
+        <v>5.63679956539197E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1475,34 +1475,34 @@
         <v>150</v>
       </c>
       <c r="F12" s="1">
-        <v>0.70811369509043898</v>
+        <v>0.68413436692506402</v>
       </c>
       <c r="G12" s="1">
-        <v>0.83333333333333304</v>
+        <v>0.82666666666666599</v>
       </c>
       <c r="H12" s="1">
-        <v>0.99636416521233195</v>
+        <v>0.996087283671933</v>
       </c>
       <c r="I12" s="1">
-        <v>4.2387249915225501E-2</v>
+        <v>3.8993710691823898E-2</v>
       </c>
       <c r="J12" s="1">
-        <v>0.82786538577729396</v>
+        <v>0.81115196078431295</v>
       </c>
       <c r="K12" s="1">
-        <v>8.0671184252984807E-2</v>
+        <v>7.4474474474474403E-2</v>
       </c>
       <c r="L12" s="1">
-        <v>0.14485109101429799</v>
+        <v>0.13386339372820699</v>
       </c>
       <c r="M12" s="1">
-        <v>0.83610542635658902</v>
+        <v>0.83082032730404798</v>
       </c>
       <c r="N12" s="1">
-        <v>6.4523581530835206E-2</v>
+        <v>7.0986267715250004E-2</v>
       </c>
       <c r="O12" s="1">
-        <v>-4.9041856543565097E-2</v>
+        <v>-5.5061952310525901E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1522,34 +1522,34 @@
         <v>150</v>
       </c>
       <c r="F13" s="1">
-        <v>0.70303030303030301</v>
+        <v>0.67272727272727195</v>
       </c>
       <c r="G13" s="1">
-        <v>0.83333333333333304</v>
+        <v>0.82666666666666599</v>
       </c>
       <c r="H13" s="1">
-        <v>0.82269503546099199</v>
+        <v>0.81021897810218901</v>
       </c>
       <c r="I13" s="1">
-        <v>0.71839080459770099</v>
+        <v>0.69662921348314599</v>
       </c>
       <c r="J13" s="1">
-        <v>0.75816993464052196</v>
+        <v>0.73509933774834402</v>
       </c>
       <c r="K13" s="1">
-        <v>0.77160493827160404</v>
+        <v>0.75609756097560898</v>
       </c>
       <c r="L13" s="1">
-        <v>0.538719564113606</v>
+        <v>0.50310726000575101</v>
       </c>
       <c r="M13" s="1">
-        <v>0.84581818181818103</v>
+        <v>0.84250505050504998</v>
       </c>
       <c r="N13" s="1">
-        <v>9.6401628484008406E-2</v>
+        <v>0.106332290571461</v>
       </c>
       <c r="O13" s="1">
-        <v>6.5823752390383405E-2</v>
+        <v>5.6286657963977901E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1569,34 +1569,34 @@
         <v>298</v>
       </c>
       <c r="F14" s="1">
-        <v>0.59394801500064598</v>
+        <v>0.60545713177292104</v>
       </c>
       <c r="G14" s="1">
-        <v>0.72818791946308703</v>
+        <v>0.711409395973154</v>
       </c>
       <c r="H14" s="1">
-        <v>0.98267008985879301</v>
+        <v>0.98196308724832204</v>
       </c>
       <c r="I14" s="1">
-        <v>6.4641048555257596E-2</v>
+        <v>6.4970885688017094E-2</v>
       </c>
       <c r="J14" s="1">
-        <v>0.74038849036833998</v>
+        <v>0.74906007519398399</v>
       </c>
       <c r="K14" s="1">
-        <v>0.11874145006839899</v>
+        <v>0.11906767761864601</v>
       </c>
       <c r="L14" s="1">
-        <v>0.12345289702373601</v>
+        <v>0.121950010404534</v>
       </c>
       <c r="M14" s="1">
-        <v>0.72449785934420297</v>
+        <v>0.717781676541831</v>
       </c>
       <c r="N14" s="1">
-        <v>0.12025201122852799</v>
+        <v>0.11574439088359401</v>
       </c>
       <c r="O14" s="1">
-        <v>-0.109339409074466</v>
+        <v>-0.101834338771772</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1616,34 +1616,34 @@
         <v>298</v>
       </c>
       <c r="F15" s="1">
-        <v>0.66442953020134199</v>
+        <v>0.65771812080536896</v>
       </c>
       <c r="G15" s="1">
-        <v>0.72818791946308703</v>
+        <v>0.711409395973154</v>
       </c>
       <c r="H15" s="1">
-        <v>0.70967741935483797</v>
+        <v>0.69503546099290703</v>
       </c>
       <c r="I15" s="1">
-        <v>0.68454258675078805</v>
+        <v>0.67515923566878899</v>
       </c>
       <c r="J15" s="1">
-        <v>0.68630849220103896</v>
+        <v>0.67586206896551704</v>
       </c>
       <c r="K15" s="1">
-        <v>0.70569105691056899</v>
+        <v>0.69281045751633896</v>
       </c>
       <c r="L15" s="1">
-        <v>0.39341791190016601</v>
+        <v>0.36966072161281999</v>
       </c>
       <c r="M15" s="1">
-        <v>0.748603666501508</v>
+        <v>0.74156006486194304</v>
       </c>
       <c r="N15" s="1">
-        <v>8.7036558205978401E-2</v>
+        <v>7.6731240919710994E-2</v>
       </c>
       <c r="O15" s="1">
-        <v>8.5278327892385399E-3</v>
+        <v>-4.3598371947050603E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1663,34 +1663,34 @@
         <v>160</v>
       </c>
       <c r="F16" s="1">
-        <v>0.48554853413446503</v>
+        <v>0.56438412928623205</v>
       </c>
       <c r="G16" s="1">
-        <v>0.9</v>
+        <v>0.84375</v>
       </c>
       <c r="H16" s="1">
-        <v>0.99659791622368699</v>
+        <v>0.99543212132285697</v>
       </c>
       <c r="I16" s="1">
-        <v>2.8180039138943201E-2</v>
+        <v>3.1105990783410101E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>0.65296740039008005</v>
+        <v>0.72034906783022601</v>
       </c>
       <c r="K16" s="1">
-        <v>5.4648956356736202E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L16" s="1">
-        <v>9.7739983470999797E-2</v>
+        <v>0.104072615405744</v>
       </c>
       <c r="M16" s="1">
-        <v>0.77512690355329905</v>
+        <v>0.78217652543250804</v>
       </c>
       <c r="N16" s="1">
-        <v>0.175341752186709</v>
+        <v>0.14119275712064699</v>
       </c>
       <c r="O16" s="1">
-        <v>-0.174428096767027</v>
+        <v>-0.12919935757138701</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1710,34 +1710,34 @@
         <v>158</v>
       </c>
       <c r="F17" s="1">
-        <v>0.556962025316455</v>
+        <v>0.664556962025316</v>
       </c>
       <c r="G17" s="1">
-        <v>0.898734177215189</v>
+        <v>0.841772151898734</v>
       </c>
       <c r="H17" s="1">
-        <v>0.84615384615384603</v>
+        <v>0.80769230769230704</v>
       </c>
       <c r="I17" s="1">
-        <v>0.66981132075471606</v>
+        <v>0.71505376344086002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.67175572519083904</v>
+        <v>0.72916666666666596</v>
       </c>
       <c r="K17" s="1">
-        <v>0.76756756756756706</v>
+        <v>0.77325581395348797</v>
       </c>
       <c r="L17" s="1">
-        <v>0.48489521259632801</v>
+        <v>0.51447211295087203</v>
       </c>
       <c r="M17" s="1">
-        <v>0.79983175773113202</v>
+        <v>0.82170325268386402</v>
       </c>
       <c r="N17" s="1">
-        <v>0.11022665631926901</v>
+        <v>0.126575170434825</v>
       </c>
       <c r="O17" s="1">
-        <v>8.9626202161400506E-2</v>
+        <v>0.100801603926136</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1851,34 +1851,34 @@
         <v>151</v>
       </c>
       <c r="F20" s="1">
-        <v>0.72949461474730704</v>
+        <v>0.72046396023198001</v>
       </c>
       <c r="G20" s="1">
-        <v>0.814569536423841</v>
+        <v>0.79470198675496595</v>
       </c>
       <c r="H20" s="1">
-        <v>0.99683006905920901</v>
+        <v>0.99644780566059299</v>
       </c>
       <c r="I20" s="1">
-        <v>3.6304604486422601E-2</v>
+        <v>3.43445907269605E-2</v>
       </c>
       <c r="J20" s="1">
-        <v>0.84246280438214605</v>
+        <v>0.83627446266288397</v>
       </c>
       <c r="K20" s="1">
-        <v>6.9511161345012701E-2</v>
+        <v>6.5843621399176905E-2</v>
       </c>
       <c r="L20" s="1">
-        <v>0.134266109040731</v>
+        <v>0.12594917246648199</v>
       </c>
       <c r="M20" s="1">
-        <v>0.84682179559632798</v>
+        <v>0.84064919317227804</v>
       </c>
       <c r="N20" s="1">
-        <v>5.7625516714220802E-2</v>
+        <v>4.2139757784778097E-2</v>
       </c>
       <c r="O20" s="1">
-        <v>-4.5699257614397797E-2</v>
+        <v>-3.3762704006886302E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1898,34 +1898,34 @@
         <v>151</v>
       </c>
       <c r="F21" s="1">
-        <v>0.67272727272727195</v>
+        <v>0.67878787878787805</v>
       </c>
       <c r="G21" s="1">
-        <v>0.814569536423841</v>
+        <v>0.79470198675496595</v>
       </c>
       <c r="H21" s="1">
-        <v>0.79856115107913594</v>
+        <v>0.78321678321678301</v>
       </c>
       <c r="I21" s="1">
-        <v>0.69491525423728795</v>
+        <v>0.69364161849710904</v>
       </c>
       <c r="J21" s="1">
-        <v>0.73026315789473595</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="K21" s="1">
-        <v>0.75</v>
+        <v>0.74074074074074003</v>
       </c>
       <c r="L21" s="1">
-        <v>0.490376873131324</v>
+        <v>0.47517114865118598</v>
       </c>
       <c r="M21" s="1">
-        <v>0.82994180212723201</v>
+        <v>0.82701184025687302</v>
       </c>
       <c r="N21" s="1">
-        <v>9.2357005380010099E-2</v>
+        <v>0.10303106330428</v>
       </c>
       <c r="O21" s="1">
-        <v>4.7774278601153998E-2</v>
+        <v>5.6082767914249702E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1945,34 +1945,34 @@
         <v>311</v>
       </c>
       <c r="F22" s="1">
-        <v>0.64902402402402404</v>
+        <v>0.65187687687687601</v>
       </c>
       <c r="G22" s="1">
-        <v>0.68488745980707399</v>
+        <v>0.66559485530546603</v>
       </c>
       <c r="H22" s="1">
-        <v>0.98879103282626102</v>
+        <v>0.98816433367474599</v>
       </c>
       <c r="I22" s="1">
-        <v>4.3576104746317498E-2</v>
+        <v>4.2733278282411198E-2</v>
       </c>
       <c r="J22" s="1">
-        <v>0.783664959434347</v>
+        <v>0.78554304066585201</v>
       </c>
       <c r="K22" s="1">
-        <v>8.1938834391228996E-2</v>
+        <v>8.0310378273520805E-2</v>
       </c>
       <c r="L22" s="1">
-        <v>0.103960371941547</v>
+        <v>9.9040993474100503E-2</v>
       </c>
       <c r="M22" s="1">
-        <v>0.73947343645896702</v>
+        <v>0.73114167221884196</v>
       </c>
       <c r="N22" s="1">
-        <v>5.5873979869380197E-2</v>
+        <v>5.1391723938495802E-2</v>
       </c>
       <c r="O22" s="1">
-        <v>-4.1011216685744999E-2</v>
+        <v>-3.9922761552331397E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1992,34 +1992,34 @@
         <v>311</v>
       </c>
       <c r="F23" s="1">
-        <v>0.72285714285714198</v>
+        <v>0.74285714285714199</v>
       </c>
       <c r="G23" s="1">
-        <v>0.68488745980707399</v>
+        <v>0.66559485530546603</v>
       </c>
       <c r="H23" s="1">
-        <v>0.72079772079771998</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="I23" s="1">
-        <v>0.68709677419354798</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="J23" s="1">
-        <v>0.72182596291012802</v>
+        <v>0.72829131652661006</v>
       </c>
       <c r="K23" s="1">
-        <v>0.68599033816425103</v>
+        <v>0.68092105263157898</v>
       </c>
       <c r="L23" s="1">
-        <v>0.40781954194120701</v>
+        <v>0.40985130777204798</v>
       </c>
       <c r="M23" s="1">
-        <v>0.77891593936610004</v>
+        <v>0.77359669269637099</v>
       </c>
       <c r="N23" s="1">
-        <v>7.1805872169517795E-2</v>
+        <v>6.1624983179276199E-2</v>
       </c>
       <c r="O23" s="1">
-        <v>2.6687742560161501E-2</v>
+        <v>2.7877411018855099E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -2039,34 +2039,34 @@
         <v>161</v>
       </c>
       <c r="F24" s="1">
-        <v>0.64058740562515504</v>
+        <v>0.69717082883929304</v>
       </c>
       <c r="G24" s="1">
-        <v>0.72670807453416097</v>
+        <v>0.73291925465838503</v>
       </c>
       <c r="H24" s="1">
-        <v>0.99433354797166695</v>
+        <v>0.99490883258347096</v>
       </c>
       <c r="I24" s="1">
-        <v>2.6298044504383E-2</v>
+        <v>3.1316348195328997E-2</v>
       </c>
       <c r="J24" s="1">
-        <v>0.779190634776465</v>
+        <v>0.81984487048148602</v>
       </c>
       <c r="K24" s="1">
-        <v>5.0759219088936998E-2</v>
+        <v>6.0066174599134603E-2</v>
       </c>
       <c r="L24" s="1">
-        <v>8.7051080779863996E-2</v>
+        <v>0.106203531913472</v>
       </c>
       <c r="M24" s="1">
-        <v>0.76262913333604698</v>
+        <v>0.77396107152004101</v>
       </c>
       <c r="N24" s="1">
-        <v>7.9376155506246299E-2</v>
+        <v>3.8394999284260399E-2</v>
       </c>
       <c r="O24" s="1">
-        <v>-6.7996940962624E-2</v>
+        <v>-1.6374103747687999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -2086,34 +2086,34 @@
         <v>158</v>
       </c>
       <c r="F25" s="1">
-        <v>0.626582278481012</v>
+        <v>0.696202531645569</v>
       </c>
       <c r="G25" s="1">
-        <v>0.727848101265822</v>
+        <v>0.734177215189873</v>
       </c>
       <c r="H25" s="1">
-        <v>0.69718309859154903</v>
+        <v>0.72368421052631504</v>
       </c>
       <c r="I25" s="1">
-        <v>0.66091954022988497</v>
+        <v>0.707317073170731</v>
       </c>
       <c r="J25" s="1">
-        <v>0.66</v>
+        <v>0.70967741935483797</v>
       </c>
       <c r="K25" s="1">
-        <v>0.69277108433734902</v>
+        <v>0.72049689440993703</v>
       </c>
       <c r="L25" s="1">
-        <v>0.35626177772225898</v>
+        <v>0.43069040314741802</v>
       </c>
       <c r="M25" s="1">
-        <v>0.75600865245954096</v>
+        <v>0.77239224483255797</v>
       </c>
       <c r="N25" s="1">
-        <v>8.1273699971148694E-2</v>
+        <v>0.13088050387346201</v>
       </c>
       <c r="O25" s="1">
-        <v>3.3343144047638898E-2</v>
+        <v>7.7258530452004301E-2</v>
       </c>
     </row>
   </sheetData>
